--- a/LeadTrackTest/Data/BaseClientesEmpresas pequeñas.xlsx
+++ b/LeadTrackTest/Data/BaseClientesEmpresas pequeñas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Personal\Iplacex\LeadTrack\LeadTrackTest\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29990E0-637F-4D5E-8497-5D5B8E8F0224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B640B60-DAC2-49AC-9515-D7566C6F9548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1188" yWindow="108" windowWidth="20304" windowHeight="11532" xr2:uid="{8816B05A-0BB3-46A5-AE4E-3FFED55F7BAF}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="232">
   <si>
     <t>Nombre</t>
   </si>
@@ -736,408 +736,6 @@
   </si>
   <si>
     <t>http://linkedin.com/in/andrés-jaque-b5571734</t>
-  </si>
-  <si>
-    <t>Hector</t>
-  </si>
-  <si>
-    <t>Norambuena</t>
-  </si>
-  <si>
-    <t>guatonpo@hotmail.com</t>
-  </si>
-  <si>
-    <t>Jefe Departamento Informatica</t>
-  </si>
-  <si>
-    <t>Outsourcing/Offshoring</t>
-  </si>
-  <si>
-    <t>Top Partners</t>
-  </si>
-  <si>
-    <t>Milano, Lombardy, Italy</t>
-  </si>
-  <si>
-    <t>toppartners.it</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/guatonpo</t>
-  </si>
-  <si>
-    <t>Vivanco</t>
-  </si>
-  <si>
-    <t>carlos.vmeza@gmail.com</t>
-  </si>
-  <si>
-    <t>Encargado De Informatica</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Bottai S A</t>
-  </si>
-  <si>
-    <t>San Bernardo, Santiago Metropolitan, Chile</t>
-  </si>
-  <si>
-    <t>bottai.cl</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/carlos-vivanco-70415232</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Lorca</t>
-  </si>
-  <si>
-    <t>alorca26@yahoo.com</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Servicios De Salud</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>sy.com.mx</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/alex-lorca-049baa1b</t>
-  </si>
-  <si>
-    <t>Patricio</t>
-  </si>
-  <si>
-    <t>Hidalgo</t>
-  </si>
-  <si>
-    <t>4rmisael@gmail.com</t>
-  </si>
-  <si>
-    <t>Comercial E Industrial Plásticos Hoffens S.A.</t>
-  </si>
-  <si>
-    <t>plasticoshoffens.cl</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/patriciobasualtoh</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Rojas</t>
-  </si>
-  <si>
-    <t>sebastiancorrearojas@gmail.com</t>
-  </si>
-  <si>
-    <t>Ingeniero De Preventa</t>
-  </si>
-  <si>
-    <t>Soc. Quinaria Informatica Ltda.</t>
-  </si>
-  <si>
-    <t>quinaria.cl</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/sebastian-correa-rojas-449a2342</t>
-  </si>
-  <si>
-    <t>Darwin</t>
-  </si>
-  <si>
-    <t>Lastra</t>
-  </si>
-  <si>
-    <t>darwinbotau@gmail.com</t>
-  </si>
-  <si>
-    <t>Profesional De Capacitaciã³N En Ã Rea Informatica</t>
-  </si>
-  <si>
-    <t>Magno</t>
-  </si>
-  <si>
-    <t>Puebla, Puebla, Mexico</t>
-  </si>
-  <si>
-    <t>magnogroup.co</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/darwin-botau-lastra-6115821a</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Bravo</t>
-  </si>
-  <si>
-    <t>christianbravo1@gmail.com</t>
-  </si>
-  <si>
-    <t>Events Services</t>
-  </si>
-  <si>
-    <t>Club El Golf 50</t>
-  </si>
-  <si>
-    <t>golf50.cl</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/christian-bravo-82351040</t>
-  </si>
-  <si>
-    <t>Pablo</t>
-  </si>
-  <si>
-    <t>Arias</t>
-  </si>
-  <si>
-    <t>agurto.arias@gmail.com</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/pabloagurto</t>
-  </si>
-  <si>
-    <t>Fernando</t>
-  </si>
-  <si>
-    <t>Alarcon</t>
-  </si>
-  <si>
-    <t>asesornet@gmail.com</t>
-  </si>
-  <si>
-    <t>Constructora Carlos Rene Garcia Gross Limitada</t>
-  </si>
-  <si>
-    <t>Temuco, Araucania, Chile</t>
-  </si>
-  <si>
-    <t>ccgg.cl</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/fernando-alarcon-a374aa27</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Echaniz</t>
-  </si>
-  <si>
-    <t>dmujica_19@hotmail.com</t>
-  </si>
-  <si>
-    <t>It Specialist</t>
-  </si>
-  <si>
-    <t>Wholesale</t>
-  </si>
-  <si>
-    <t>Eral Chile, S.A.</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/diego-mujica-echaniz-b1503649</t>
-  </si>
-  <si>
-    <t>De</t>
-  </si>
-  <si>
-    <t>Jesus</t>
-  </si>
-  <si>
-    <t>edo_delapaz@hotmail.com</t>
-  </si>
-  <si>
-    <t>Tencnico Informatico</t>
-  </si>
-  <si>
-    <t>Import. Y Export Laser Imaging Chile Ltda.</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/de-jesus-48214922</t>
-  </si>
-  <si>
-    <t>Carranza</t>
-  </si>
-  <si>
-    <t>hector.carranza@gmail.com</t>
-  </si>
-  <si>
-    <t>Ingeniero De Ejecucion En Informatica</t>
-  </si>
-  <si>
-    <t>Bee</t>
-  </si>
-  <si>
-    <t>Buenos Aires, Argentina</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/hector-carranza-44a22540</t>
-  </si>
-  <si>
-    <t>Mauricio</t>
-  </si>
-  <si>
-    <t>Silva</t>
-  </si>
-  <si>
-    <t>lautaro72@hotmail.com</t>
-  </si>
-  <si>
-    <t>Saint Rose School</t>
-  </si>
-  <si>
-    <t>Newtown, Connecticut, United States</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/mauricio-lazcano-silva-07242922</t>
-  </si>
-  <si>
-    <t>Urizar</t>
-  </si>
-  <si>
-    <t>RStansley@stansleygroup.com</t>
-  </si>
-  <si>
-    <t>Informatico at Stansley Mineral Resources, Inc</t>
-  </si>
-  <si>
-    <t>Stansley Mineral Resources, Inc</t>
-  </si>
-  <si>
-    <t>Sylvania, Ohio, United States</t>
-  </si>
-  <si>
-    <t>stansleygroup.com</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/cristian-urizar-a8b95b84</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Paredes</t>
-  </si>
-  <si>
-    <t>sonia.chahuan@inrpac.cl</t>
-  </si>
-  <si>
-    <t>Encargado De Informatica at Inrpac</t>
-  </si>
-  <si>
-    <t>Inrpac</t>
-  </si>
-  <si>
-    <t>inrpac.cl</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/david-contreras-paredes-a67ab249</t>
-  </si>
-  <si>
-    <t>Leslye</t>
-  </si>
-  <si>
-    <t>Matus</t>
-  </si>
-  <si>
-    <t>leslyematus@mops.org</t>
-  </si>
-  <si>
-    <t>Tecnico En Informatica at Mops International</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/leslye-matus-3a8992a1</t>
-  </si>
-  <si>
-    <t>Leonardo</t>
-  </si>
-  <si>
-    <t>Massoni</t>
-  </si>
-  <si>
-    <t>leonardo.massoni@crewvalue.com</t>
-  </si>
-  <si>
-    <t>Gerente De Consultorã A - Consultor Senior Sap - Is-T Is-U Is-He Fica at Informatica Crewvalue</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/lmassoni</t>
-  </si>
-  <si>
-    <t>Alexis</t>
-  </si>
-  <si>
-    <t>Alday</t>
-  </si>
-  <si>
-    <t>aalday@italmod.cl</t>
-  </si>
-  <si>
-    <t>Encargado Desarrollo Informatico</t>
-  </si>
-  <si>
-    <t>Logistics And Supply Chain</t>
-  </si>
-  <si>
-    <t>Italmod S.A.</t>
-  </si>
-  <si>
-    <t>italmod.cl</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/alexis-alday-02458a73</t>
-  </si>
-  <si>
-    <t>Bastian</t>
-  </si>
-  <si>
-    <t>Aguilar</t>
-  </si>
-  <si>
-    <t>bastian.aguilar@amandalabarca.cl</t>
-  </si>
-  <si>
-    <t>Liceo Amanda Lbarca</t>
-  </si>
-  <si>
-    <t>amandalabarca.cl</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/bastian-aguilar-a4695116a</t>
-  </si>
-  <si>
-    <t>Miguel</t>
-  </si>
-  <si>
-    <t>Del Roure</t>
-  </si>
-  <si>
-    <t>mandelr@yahoo.com</t>
-  </si>
-  <si>
-    <t>Program Development</t>
-  </si>
-  <si>
-    <t>Educacion Online</t>
-  </si>
-  <si>
-    <t>educaciononline.com</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/miguel-nicolau-del-roure-7251b514</t>
   </si>
 </sst>
 </file>
@@ -1510,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB8D677-46BC-4836-95DB-513FD5AA0900}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD498"/>
+      <selection activeCell="A31" sqref="A31:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2481,630 +2079,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>232</v>
-      </c>
-      <c r="B31" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" t="s">
-        <v>234</v>
-      </c>
-      <c r="D31" t="s">
-        <v>235</v>
-      </c>
-      <c r="E31" t="s">
-        <v>236</v>
-      </c>
-      <c r="F31" t="s">
-        <v>237</v>
-      </c>
-      <c r="G31" t="s">
-        <v>238</v>
-      </c>
-      <c r="H31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" t="s">
-        <v>239</v>
-      </c>
-      <c r="J31" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" t="s">
-        <v>242</v>
-      </c>
-      <c r="D32" t="s">
-        <v>243</v>
-      </c>
-      <c r="E32" t="s">
-        <v>244</v>
-      </c>
-      <c r="F32" t="s">
-        <v>245</v>
-      </c>
-      <c r="G32" t="s">
-        <v>246</v>
-      </c>
-      <c r="H32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" t="s">
-        <v>247</v>
-      </c>
-      <c r="J32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>249</v>
-      </c>
-      <c r="B33" t="s">
-        <v>250</v>
-      </c>
-      <c r="C33" t="s">
-        <v>251</v>
-      </c>
-      <c r="D33" t="s">
-        <v>211</v>
-      </c>
-      <c r="E33" t="s">
-        <v>252</v>
-      </c>
-      <c r="F33" t="s">
-        <v>253</v>
-      </c>
-      <c r="G33" t="s">
-        <v>254</v>
-      </c>
-      <c r="H33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" t="s">
-        <v>255</v>
-      </c>
-      <c r="J33" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>257</v>
-      </c>
-      <c r="B34" t="s">
-        <v>258</v>
-      </c>
-      <c r="C34" t="s">
-        <v>259</v>
-      </c>
-      <c r="D34" t="s">
-        <v>243</v>
-      </c>
-      <c r="E34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" t="s">
-        <v>260</v>
-      </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" t="s">
-        <v>261</v>
-      </c>
-      <c r="J34" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>263</v>
-      </c>
-      <c r="B35" t="s">
-        <v>264</v>
-      </c>
-      <c r="C35" t="s">
-        <v>265</v>
-      </c>
-      <c r="D35" t="s">
-        <v>266</v>
-      </c>
-      <c r="E35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" t="s">
-        <v>267</v>
-      </c>
-      <c r="G35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" t="s">
-        <v>268</v>
-      </c>
-      <c r="J35" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>270</v>
-      </c>
-      <c r="B36" t="s">
-        <v>271</v>
-      </c>
-      <c r="C36" t="s">
-        <v>272</v>
-      </c>
-      <c r="D36" t="s">
-        <v>273</v>
-      </c>
-      <c r="E36" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" t="s">
-        <v>274</v>
-      </c>
-      <c r="G36" t="s">
-        <v>275</v>
-      </c>
-      <c r="H36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" t="s">
-        <v>276</v>
-      </c>
-      <c r="J36" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>278</v>
-      </c>
-      <c r="B37" t="s">
-        <v>279</v>
-      </c>
-      <c r="C37" t="s">
-        <v>280</v>
-      </c>
-      <c r="D37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E37" t="s">
-        <v>281</v>
-      </c>
-      <c r="F37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" t="s">
-        <v>283</v>
-      </c>
-      <c r="J37" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>285</v>
-      </c>
-      <c r="B38" t="s">
-        <v>286</v>
-      </c>
-      <c r="C38" t="s">
-        <v>287</v>
-      </c>
-      <c r="D38" t="s">
-        <v>266</v>
-      </c>
-      <c r="E38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" t="s">
-        <v>267</v>
-      </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" t="s">
-        <v>268</v>
-      </c>
-      <c r="J38" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>289</v>
-      </c>
-      <c r="B39" t="s">
-        <v>290</v>
-      </c>
-      <c r="C39" t="s">
-        <v>291</v>
-      </c>
-      <c r="D39" t="s">
-        <v>243</v>
-      </c>
-      <c r="E39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" t="s">
-        <v>292</v>
-      </c>
-      <c r="G39" t="s">
-        <v>293</v>
-      </c>
-      <c r="H39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" t="s">
-        <v>294</v>
-      </c>
-      <c r="J39" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>296</v>
-      </c>
-      <c r="B40" t="s">
-        <v>297</v>
-      </c>
-      <c r="C40" t="s">
-        <v>298</v>
-      </c>
-      <c r="D40" t="s">
-        <v>299</v>
-      </c>
-      <c r="E40" t="s">
-        <v>300</v>
-      </c>
-      <c r="F40" t="s">
-        <v>301</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J40" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>303</v>
-      </c>
-      <c r="B41" t="s">
-        <v>304</v>
-      </c>
-      <c r="C41" t="s">
-        <v>305</v>
-      </c>
-      <c r="D41" t="s">
-        <v>306</v>
-      </c>
-      <c r="E41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" t="s">
-        <v>307</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>232</v>
-      </c>
-      <c r="B42" t="s">
-        <v>309</v>
-      </c>
-      <c r="C42" t="s">
-        <v>310</v>
-      </c>
-      <c r="D42" t="s">
-        <v>311</v>
-      </c>
-      <c r="E42" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" t="s">
-        <v>312</v>
-      </c>
-      <c r="G42" t="s">
-        <v>313</v>
-      </c>
-      <c r="H42" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>315</v>
-      </c>
-      <c r="B43" t="s">
-        <v>316</v>
-      </c>
-      <c r="C43" t="s">
-        <v>317</v>
-      </c>
-      <c r="D43" t="s">
-        <v>227</v>
-      </c>
-      <c r="E43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" t="s">
-        <v>318</v>
-      </c>
-      <c r="G43" t="s">
-        <v>319</v>
-      </c>
-      <c r="H43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>183</v>
-      </c>
-      <c r="B44" t="s">
-        <v>321</v>
-      </c>
-      <c r="C44" t="s">
-        <v>322</v>
-      </c>
-      <c r="D44" t="s">
-        <v>323</v>
-      </c>
-      <c r="E44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" t="s">
-        <v>324</v>
-      </c>
-      <c r="G44" t="s">
-        <v>325</v>
-      </c>
-      <c r="H44" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" t="s">
-        <v>326</v>
-      </c>
-      <c r="J44" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>328</v>
-      </c>
-      <c r="B45" t="s">
-        <v>329</v>
-      </c>
-      <c r="C45" t="s">
-        <v>330</v>
-      </c>
-      <c r="D45" t="s">
-        <v>331</v>
-      </c>
-      <c r="E45" t="s">
-        <v>252</v>
-      </c>
-      <c r="F45" t="s">
-        <v>332</v>
-      </c>
-      <c r="H45" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" t="s">
-        <v>333</v>
-      </c>
-      <c r="J45" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>335</v>
-      </c>
-      <c r="B46" t="s">
-        <v>336</v>
-      </c>
-      <c r="C46" t="s">
-        <v>337</v>
-      </c>
-      <c r="D46" t="s">
-        <v>338</v>
-      </c>
-      <c r="E46" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" t="s">
-        <v>37</v>
-      </c>
-      <c r="J46" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>340</v>
-      </c>
-      <c r="B47" t="s">
-        <v>341</v>
-      </c>
-      <c r="C47" t="s">
-        <v>342</v>
-      </c>
-      <c r="D47" t="s">
-        <v>343</v>
-      </c>
-      <c r="E47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" t="s">
-        <v>194</v>
-      </c>
-      <c r="G47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" t="s">
-        <v>195</v>
-      </c>
-      <c r="J47" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>345</v>
-      </c>
-      <c r="B48" t="s">
-        <v>346</v>
-      </c>
-      <c r="C48" t="s">
-        <v>347</v>
-      </c>
-      <c r="D48" t="s">
-        <v>348</v>
-      </c>
-      <c r="E48" t="s">
-        <v>349</v>
-      </c>
-      <c r="F48" t="s">
-        <v>350</v>
-      </c>
-      <c r="G48" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" t="s">
-        <v>351</v>
-      </c>
-      <c r="J48" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>353</v>
-      </c>
-      <c r="B49" t="s">
-        <v>354</v>
-      </c>
-      <c r="C49" t="s">
-        <v>355</v>
-      </c>
-      <c r="D49" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" t="s">
-        <v>357</v>
-      </c>
-      <c r="J49" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>359</v>
-      </c>
-      <c r="B50" t="s">
-        <v>360</v>
-      </c>
-      <c r="C50" t="s">
-        <v>361</v>
-      </c>
-      <c r="D50" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" t="s">
-        <v>362</v>
-      </c>
-      <c r="F50" t="s">
-        <v>363</v>
-      </c>
-      <c r="G50" t="s">
-        <v>146</v>
-      </c>
-      <c r="H50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" t="s">
-        <v>364</v>
-      </c>
-      <c r="J50" t="s">
-        <v>365</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J50" xr:uid="{EEB8D677-46BC-4836-95DB-513FD5AA0900}"/>
+  <autoFilter ref="A1:J30" xr:uid="{EEB8D677-46BC-4836-95DB-513FD5AA0900}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
